--- a/payroll_off.xlsx
+++ b/payroll_off.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>TAX/MWE</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>2106</t>
   </si>
   <si>
@@ -70,6 +73,18 @@
     <t>MWE</t>
   </si>
   <si>
+    <t>2172</t>
+  </si>
+  <si>
+    <t>PASA,SALVADOR</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
     <t>2141</t>
   </si>
   <si>
@@ -79,9 +94,6 @@
     <t>DT Driver</t>
   </si>
   <si>
-    <t>Taxable</t>
-  </si>
-  <si>
     <t>2163</t>
   </si>
   <si>
@@ -163,13 +175,31 @@
     <t>OPERATOR</t>
   </si>
   <si>
-    <t>2172</t>
-  </si>
-  <si>
-    <t>PASA,SALVADOR</t>
-  </si>
-  <si>
-    <t>driver</t>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>PITUA,DANILO</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>MENDADOR,JERICHO</t>
+  </si>
+  <si>
+    <t>Warehouese man</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>CATACUTAN,REXXON</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
   </si>
   <si>
     <t>5003</t>
@@ -510,13 +540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,25 +583,28 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>250</v>
       </c>
       <c r="E2">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -589,65 +622,71 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
+        <v>475</v>
+      </c>
+      <c r="E3">
+        <v>11166.74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>11166.74</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>425</v>
       </c>
-      <c r="E3">
-        <v>13048.03</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>13048.03</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>475</v>
-      </c>
       <c r="E4">
-        <v>10489.19</v>
+        <v>11105.25</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -656,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10489.19</v>
+        <v>11105.25</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -665,27 +704,30 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>475</v>
       </c>
       <c r="E5">
-        <v>8344.610000000001</v>
+        <v>3376.94</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -694,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8344.610000000001</v>
+        <v>3376.94</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -703,27 +745,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6">
         <v>475</v>
       </c>
       <c r="E6">
-        <v>7980.28</v>
+        <v>10666.63</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -732,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7980.28</v>
+        <v>10666.63</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -741,27 +786,30 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>475</v>
       </c>
       <c r="E7">
-        <v>10123.72</v>
+        <v>3163.19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -770,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10123.72</v>
+        <v>3163.19</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -779,27 +827,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E8">
-        <v>6431.19</v>
+        <v>8752.09</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -808,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6431.19</v>
+        <v>8752.09</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -817,27 +868,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>378.5</v>
       </c>
       <c r="E9">
-        <v>7939.51</v>
+        <v>6772.78</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -846,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7939.51</v>
+        <v>6772.78</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -855,27 +909,30 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>600</v>
+        <v>378.5</v>
       </c>
       <c r="E10">
-        <v>12752.5</v>
+        <v>7583.25</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -884,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12752.5</v>
+        <v>7583.25</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,197 +950,830 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>600</v>
       </c>
       <c r="E11">
-        <v>10986</v>
+        <v>13191.8</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>13191.8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>10706.25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>10706.25</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>378.5</v>
+      </c>
+      <c r="E13">
+        <v>10098.38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10098.38</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>600</v>
+      </c>
+      <c r="E14">
+        <v>6607.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>6607.5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>10986</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>3500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="D16">
+        <v>475</v>
+      </c>
+      <c r="E16">
+        <v>9572.09</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>9572.09</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>425</v>
+      </c>
+      <c r="E17">
+        <v>8624.84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>8624.84</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>475</v>
+      </c>
+      <c r="E18">
+        <v>8408.389999999999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>8408.389999999999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>475</v>
+      </c>
+      <c r="E19">
+        <v>4677.25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4677.25</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>475</v>
+      </c>
+      <c r="E20">
+        <v>10140.49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>10140.49</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>378.5</v>
+      </c>
+      <c r="E21">
+        <v>6103.31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6103.31</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>378.5</v>
+      </c>
+      <c r="E22">
+        <v>7572.37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>7572.37</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D23">
+        <v>600</v>
+      </c>
+      <c r="E23">
+        <v>14071.88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>14071.88</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="D12">
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>600</v>
+      </c>
+      <c r="E24">
+        <v>9633.75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>9633.75</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
         <v>378.5</v>
       </c>
-      <c r="E12">
-        <v>9172</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>9172</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13">
+      <c r="E25">
+        <v>9137.940000000001</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>9137.940000000001</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
         <v>600</v>
       </c>
-      <c r="E13">
-        <v>9144.75</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>9144.75</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>475</v>
-      </c>
-      <c r="E14">
-        <v>8888.440000000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>8888.440000000001</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
+      <c r="E26">
+        <v>12369</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>12369</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>378.5</v>
+      </c>
+      <c r="E27">
+        <v>8098.95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>8098.95</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>378.5</v>
+      </c>
+      <c r="E28">
+        <v>3869.22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3869.22</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
         <v>30000</v>
       </c>
-      <c r="E15">
+      <c r="E29">
         <v>15000</v>
       </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>15000</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>30000</v>
+      </c>
+      <c r="E30">
+        <v>15000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>15000</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>44712</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_off.xlsx
+++ b/payroll_off.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -94,112 +94,118 @@
     <t>DT Driver</t>
   </si>
   <si>
-    <t>2163</t>
-  </si>
-  <si>
-    <t>DICEN,JEREMIAH</t>
+    <t>2168</t>
+  </si>
+  <si>
+    <t>OMAYAO,LEONIDES JR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>SEVERO ,JOHN PAUL</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>PALARAN,TERESA</t>
+  </si>
+  <si>
+    <t>OFFICE ASSISTANT</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>ALEJANDRIA,JOHN</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>FRANCISCO,ROGELIO</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>CARTABON,ROMAR</t>
+  </si>
+  <si>
+    <t>equipment monitoring</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>PITUA,DANILO</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>MENDADOR,JERICHO</t>
+  </si>
+  <si>
+    <t>Warehouese man</t>
+  </si>
+  <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>CATACUTAN,REXXON</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>BELANDO,HAREM</t>
   </si>
   <si>
     <t>DRIVER</t>
   </si>
   <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>PATROCENIO,ROGER</t>
-  </si>
-  <si>
-    <t>2166</t>
-  </si>
-  <si>
-    <t>ACABAL,BENGIE</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>OMAYAO,LEONIDES JR</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>SEVERO ,JOHN PAUL</t>
-  </si>
-  <si>
-    <t>MECHANIC</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>PALARAN,TERESA</t>
-  </si>
-  <si>
-    <t>OFFICE ASSISTANT</t>
-  </si>
-  <si>
-    <t>2173</t>
-  </si>
-  <si>
-    <t>ALEJANDRIA,JOHN</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>FRANCISCO,ROGELIO</t>
-  </si>
-  <si>
-    <t>2175</t>
-  </si>
-  <si>
-    <t>CARTABON,ROMAR</t>
-  </si>
-  <si>
-    <t>equipment monitoring</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>PASA,DANILO</t>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>SAN JUAN,ROYLITO</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>ROMUALDO,EDGARDO</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>BAGANTE,JULITO</t>
   </si>
   <si>
     <t>OPERATOR</t>
   </si>
   <si>
-    <t>2177</t>
-  </si>
-  <si>
-    <t>PITUA,DANILO</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>MENDADOR,JERICHO</t>
-  </si>
-  <si>
-    <t>Warehouese man</t>
-  </si>
-  <si>
-    <t>2179</t>
-  </si>
-  <si>
-    <t>CATACUTAN,REXXON</t>
-  </si>
-  <si>
-    <t>Helper Mechanic</t>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>JACOBE,DIONITO</t>
   </si>
   <si>
     <t>5003</t>
@@ -540,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +607,7 @@
         <v>250</v>
       </c>
       <c r="E2">
-        <v>3500</v>
+        <v>3750</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -625,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="M2">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -642,7 +648,7 @@
         <v>475</v>
       </c>
       <c r="E3">
-        <v>11166.74</v>
+        <v>10441.09</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -654,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11166.74</v>
+        <v>10441.09</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -666,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="M3">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -683,7 +689,7 @@
         <v>425</v>
       </c>
       <c r="E4">
-        <v>11105.25</v>
+        <v>9940.219999999999</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11105.25</v>
+        <v>9940.219999999999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -707,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="M4">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -724,7 +730,7 @@
         <v>475</v>
       </c>
       <c r="E5">
-        <v>3376.94</v>
+        <v>10622.19</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3376.94</v>
+        <v>10622.19</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -748,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="M5">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -759,13 +765,13 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>475</v>
+        <v>378.5</v>
       </c>
       <c r="E6">
-        <v>10666.63</v>
+        <v>5850.19</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10666.63</v>
+        <v>5850.19</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -789,24 +795,24 @@
         <v>22</v>
       </c>
       <c r="M6">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>475</v>
+        <v>378.5</v>
       </c>
       <c r="E7">
-        <v>3163.19</v>
+        <v>6681.71</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3163.19</v>
+        <v>6681.71</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -830,24 +836,24 @@
         <v>22</v>
       </c>
       <c r="M7">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E8">
-        <v>8752.09</v>
+        <v>4244.25</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8752.09</v>
+        <v>4244.25</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -871,24 +877,24 @@
         <v>22</v>
       </c>
       <c r="M8">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9">
-        <v>378.5</v>
+        <v>600</v>
       </c>
       <c r="E9">
-        <v>6772.78</v>
+        <v>7481.25</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -900,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6772.78</v>
+        <v>7481.25</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -912,24 +918,24 @@
         <v>22</v>
       </c>
       <c r="M9">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>378.5</v>
       </c>
       <c r="E10">
-        <v>7583.25</v>
+        <v>8419.26</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7583.25</v>
+        <v>8419.26</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -953,24 +959,24 @@
         <v>22</v>
       </c>
       <c r="M10">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>600</v>
       </c>
       <c r="E11">
-        <v>13191.8</v>
+        <v>12618.75</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13191.8</v>
+        <v>12618.75</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -994,24 +1000,24 @@
         <v>22</v>
       </c>
       <c r="M11">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>600</v>
+        <v>378.5</v>
       </c>
       <c r="E12">
-        <v>10706.25</v>
+        <v>7016.44</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10706.25</v>
+        <v>7016.44</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1032,27 +1038,27 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>378.5</v>
       </c>
       <c r="E13">
-        <v>10098.38</v>
+        <v>7998.65</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10098.38</v>
+        <v>7998.65</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1073,27 +1079,27 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E14">
-        <v>6607.5</v>
+        <v>7620.78</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6607.5</v>
+        <v>7620.78</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1114,27 +1120,27 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>44696</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>475</v>
       </c>
       <c r="E15">
-        <v>3500</v>
+        <v>8717.129999999999</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1146,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8717.129999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,24 +1164,24 @@
         <v>18</v>
       </c>
       <c r="M15">
-        <v>44712</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>475</v>
       </c>
       <c r="E16">
-        <v>9572.09</v>
+        <v>9944.549999999999</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1187,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9572.09</v>
+        <v>9944.549999999999</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1196,27 +1202,27 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>44712</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>425</v>
+        <v>600</v>
       </c>
       <c r="E17">
-        <v>8624.84</v>
+        <v>9533.75</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1228,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8624.84</v>
+        <v>9533.75</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1240,24 +1246,24 @@
         <v>22</v>
       </c>
       <c r="M17">
-        <v>44712</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>475</v>
       </c>
       <c r="E18">
-        <v>8408.389999999999</v>
+        <v>7783.27</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1269,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8408.389999999999</v>
+        <v>7783.27</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1278,30 +1284,30 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>44712</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>475</v>
+        <v>30000</v>
       </c>
       <c r="E19">
-        <v>4677.25</v>
+        <v>15000</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1310,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4677.25</v>
+        <v>15000</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1322,458 +1328,7 @@
         <v>22</v>
       </c>
       <c r="M19">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>475</v>
-      </c>
-      <c r="E20">
-        <v>10140.49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>10140.49</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21">
-        <v>378.5</v>
-      </c>
-      <c r="E21">
-        <v>6103.31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>6103.31</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22">
-        <v>378.5</v>
-      </c>
-      <c r="E22">
-        <v>7572.37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>7572.37</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23">
-        <v>600</v>
-      </c>
-      <c r="E23">
-        <v>14071.88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>14071.88</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24">
-        <v>600</v>
-      </c>
-      <c r="E24">
-        <v>9633.75</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>9633.75</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>378.5</v>
-      </c>
-      <c r="E25">
-        <v>9137.940000000001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>9137.940000000001</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <v>600</v>
-      </c>
-      <c r="E26">
-        <v>12369</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>12369</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>378.5</v>
-      </c>
-      <c r="E27">
-        <v>8098.95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>8098.95</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28">
-        <v>378.5</v>
-      </c>
-      <c r="E28">
-        <v>3869.22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3869.22</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <v>30000</v>
-      </c>
-      <c r="E29">
-        <v>15000</v>
-      </c>
-      <c r="F29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>15000</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29">
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30">
-        <v>30000</v>
-      </c>
-      <c r="E30">
-        <v>15000</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>15000</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30">
-        <v>44712</v>
+        <v>44742</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_off.xlsx
+++ b/payroll_off.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,21 @@
     <t>Date</t>
   </si>
   <si>
+    <t>2179</t>
+  </si>
+  <si>
+    <t>CATACUTAN,REXXON</t>
+  </si>
+  <si>
+    <t>Helper Mechanic</t>
+  </si>
+  <si>
+    <t>Surigao</t>
+  </si>
+  <si>
+    <t>MWE</t>
+  </si>
+  <si>
     <t>2106</t>
   </si>
   <si>
@@ -70,7 +85,154 @@
     <t>Rizal-R&amp;F</t>
   </si>
   <si>
-    <t>MWE</t>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>CABILIN,JOURDY</t>
+  </si>
+  <si>
+    <t>DT Driver</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>SEVERO ,JOHN PAUL</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
+    <t>2171</t>
+  </si>
+  <si>
+    <t>PALARAN,TERESA</t>
+  </si>
+  <si>
+    <t>OFFICE ASSISTANT</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>FRANCISCO,ROGELIO</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>CARTABON,ROMAR</t>
+  </si>
+  <si>
+    <t>equipment monitoring</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>MENDADOR,JERICHO</t>
+  </si>
+  <si>
+    <t>Warehouese man</t>
+  </si>
+  <si>
+    <t>2180</t>
+  </si>
+  <si>
+    <t>BELANDO,HAREM</t>
+  </si>
+  <si>
+    <t>DRIVER</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>SAN JUAN,ROYLITO</t>
+  </si>
+  <si>
+    <t>2182</t>
+  </si>
+  <si>
+    <t>ROMUALDO,EDGARDO</t>
+  </si>
+  <si>
+    <t>2183</t>
+  </si>
+  <si>
+    <t>JACOBE,DIONITO</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>BAGANTE,JULITO</t>
+  </si>
+  <si>
+    <t>OPERATOR</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>VILLARIZE,JAYSON</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>2186</t>
+  </si>
+  <si>
+    <t>ENRIQUEZ,JERALD</t>
+  </si>
+  <si>
+    <t>2188</t>
+  </si>
+  <si>
+    <t>PEREZ,EFREN</t>
+  </si>
+  <si>
+    <t>6003</t>
+  </si>
+  <si>
+    <t>NATIVIDAD,CHALTON</t>
+  </si>
+  <si>
+    <t>Zamboanga</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>MORALES,SONNY</t>
+  </si>
+  <si>
+    <t>6007</t>
+  </si>
+  <si>
+    <t>FALCASANTOS,NELSON</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>ALVAREZ,EUTEMIO JR</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>6009</t>
+  </si>
+  <si>
+    <t>OCAMPO,ROMMEL</t>
   </si>
   <si>
     <t>2172</t>
@@ -82,139 +244,128 @@
     <t>driver</t>
   </si>
   <si>
-    <t>Taxable</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>CABILIN,JOURDY</t>
-  </si>
-  <si>
-    <t>DT Driver</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>OMAYAO,LEONIDES JR</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2170</t>
-  </si>
-  <si>
-    <t>SEVERO ,JOHN PAUL</t>
-  </si>
-  <si>
-    <t>MECHANIC</t>
-  </si>
-  <si>
-    <t>2171</t>
-  </si>
-  <si>
-    <t>PALARAN,TERESA</t>
-  </si>
-  <si>
-    <t>OFFICE ASSISTANT</t>
-  </si>
-  <si>
-    <t>2173</t>
-  </si>
-  <si>
-    <t>ALEJANDRIA,JOHN</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>FRANCISCO,ROGELIO</t>
-  </si>
-  <si>
-    <t>2175</t>
-  </si>
-  <si>
-    <t>CARTABON,ROMAR</t>
-  </si>
-  <si>
-    <t>equipment monitoring</t>
-  </si>
-  <si>
-    <t>2177</t>
-  </si>
-  <si>
-    <t>PITUA,DANILO</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>2178</t>
-  </si>
-  <si>
-    <t>MENDADOR,JERICHO</t>
-  </si>
-  <si>
-    <t>Warehouese man</t>
-  </si>
-  <si>
-    <t>2179</t>
-  </si>
-  <si>
-    <t>CATACUTAN,REXXON</t>
-  </si>
-  <si>
-    <t>Helper Mechanic</t>
-  </si>
-  <si>
-    <t>2180</t>
-  </si>
-  <si>
-    <t>BELANDO,HAREM</t>
-  </si>
-  <si>
-    <t>DRIVER</t>
-  </si>
-  <si>
-    <t>2181</t>
-  </si>
-  <si>
-    <t>SAN JUAN,ROYLITO</t>
-  </si>
-  <si>
-    <t>2182</t>
-  </si>
-  <si>
-    <t>ROMUALDO,EDGARDO</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>BAGANTE,JULITO</t>
-  </si>
-  <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
-    <t>2183</t>
-  </si>
-  <si>
-    <t>JACOBE,DIONITO</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>MEJA,JIMUEL</t>
-  </si>
-  <si>
-    <t>Surigao</t>
+    <t>Bayug</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>MENDOZA,RICHARD</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>HENEDO,RONALD</t>
+  </si>
+  <si>
+    <t>6006</t>
+  </si>
+  <si>
+    <t>SABEJON,ROBERTO</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>MAHINAY,VAN LESTER JUNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MINE STATISTICIAN</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>CABRERA,MARCELO</t>
+  </si>
+  <si>
+    <t>6010</t>
+  </si>
+  <si>
+    <t>RANOCO,FLORENCIO JR</t>
+  </si>
+  <si>
+    <t>6011</t>
+  </si>
+  <si>
+    <t>ABERIN,EARL</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>AGUILAR ,FILMAR</t>
+  </si>
+  <si>
+    <t>SERVICE DRIVER</t>
+  </si>
+  <si>
+    <t>6013</t>
+  </si>
+  <si>
+    <t>JAMINEZ,DAYLYN</t>
+  </si>
+  <si>
+    <t>6014</t>
+  </si>
+  <si>
+    <t>OCAMPO,MARK</t>
+  </si>
+  <si>
+    <t>6015</t>
+  </si>
+  <si>
+    <t>COLUMBRES,JAYSON</t>
+  </si>
+  <si>
+    <t>6016</t>
+  </si>
+  <si>
+    <t>DELOS REYES,LEOMARK</t>
+  </si>
+  <si>
+    <t>DT DRIVER</t>
+  </si>
+  <si>
+    <t>6017</t>
+  </si>
+  <si>
+    <t>JUATON,RICHARD</t>
+  </si>
+  <si>
+    <t>6018</t>
+  </si>
+  <si>
+    <t>LUCAYLUCAY,EDUARDO</t>
+  </si>
+  <si>
+    <t>6019</t>
+  </si>
+  <si>
+    <t>ESPARAGOZA,MARIO</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>EDIZA,EMMANUEL</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>OPENIO REYES,BALONG</t>
+  </si>
+  <si>
+    <t>6022</t>
+  </si>
+  <si>
+    <t>GALING,REWEL</t>
+  </si>
+  <si>
+    <t>BH-OPERATOR</t>
   </si>
 </sst>
 </file>
@@ -546,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +755,10 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="E2">
-        <v>3750</v>
+        <v>6897.2</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -619,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6897.2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -631,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="M2">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -645,13 +796,13 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>475</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>10441.09</v>
+        <v>4000</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -660,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10441.09</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -669,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -686,13 +837,13 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="E4">
-        <v>9940.219999999999</v>
+        <v>11989.69</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -701,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9940.219999999999</v>
+        <v>11989.69</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -710,30 +861,30 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="E5">
-        <v>10622.19</v>
+        <v>5718.26</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -742,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10622.19</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -751,30 +902,30 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>378.5</v>
+        <v>401</v>
       </c>
       <c r="E6">
-        <v>5850.19</v>
+        <v>7234.54</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -783,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5850.19</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -792,30 +943,30 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>378.5</v>
+        <v>600</v>
       </c>
       <c r="E7">
-        <v>6681.71</v>
+        <v>9116.25</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -824,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6681.71</v>
+        <v>9116.25</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -833,30 +984,30 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="E8">
-        <v>4244.25</v>
+        <v>9718.74</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -865,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4244.25</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -874,30 +1025,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>600</v>
+        <v>401</v>
       </c>
       <c r="E9">
-        <v>7481.25</v>
+        <v>7209.48</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -906,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7481.25</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -915,30 +1066,30 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E10">
-        <v>8419.26</v>
+        <v>5887.25</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -947,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8419.26</v>
+        <v>5887.25</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -956,30 +1107,30 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E11">
-        <v>12618.75</v>
+        <v>11171.84</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -988,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12618.75</v>
+        <v>11171.84</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -997,30 +1148,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E12">
-        <v>7016.44</v>
+        <v>11616.72</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1029,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7016.44</v>
+        <v>11616.72</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1041,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="M12">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1052,16 +1203,16 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>378.5</v>
+        <v>475</v>
       </c>
       <c r="E13">
-        <v>7998.65</v>
+        <v>7906.81</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1070,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7998.65</v>
+        <v>7906.81</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1082,27 +1233,27 @@
         <v>18</v>
       </c>
       <c r="M13">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
       <c r="D14">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E14">
-        <v>7620.78</v>
+        <v>12153.25</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1111,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7620.78</v>
+        <v>12153.25</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1120,30 +1271,30 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="D15">
         <v>475</v>
       </c>
       <c r="E15">
-        <v>8717.129999999999</v>
+        <v>7906.22</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1152,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8717.129999999999</v>
+        <v>7906.22</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1161,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1175,16 +1326,16 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>475</v>
       </c>
       <c r="E16">
-        <v>9944.549999999999</v>
+        <v>8677.66</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1193,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9944.549999999999</v>
+        <v>8677.66</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1202,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1216,16 +1367,16 @@
         <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>600</v>
+        <v>475</v>
       </c>
       <c r="E17">
-        <v>9533.75</v>
+        <v>9085.559999999999</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1234,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9533.75</v>
+        <v>9085.559999999999</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1243,31 +1394,31 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>2400</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18">
-        <v>475</v>
-      </c>
-      <c r="E18">
-        <v>7783.27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -1275,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7783.27</v>
+        <v>2400</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1284,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>44742</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1298,37 +1449,939 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>30000</v>
+        <v>400</v>
       </c>
       <c r="E19">
-        <v>15000</v>
+        <v>2400</v>
       </c>
       <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2400</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>15000</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19">
-        <v>44742</v>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>2400</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2400</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>400</v>
+      </c>
+      <c r="E21">
+        <v>2400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2400</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>6240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>6240</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>475</v>
+      </c>
+      <c r="E23">
+        <v>4000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>475</v>
+      </c>
+      <c r="E24">
+        <v>7584</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>7584</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>400</v>
+      </c>
+      <c r="E25">
+        <v>7177</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>7177</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>400</v>
+      </c>
+      <c r="E26">
+        <v>8119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>8119</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>450</v>
+      </c>
+      <c r="E27">
+        <v>11202.75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>11202.75</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>450</v>
+      </c>
+      <c r="E28">
+        <v>4001.4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4001.4</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>351</v>
+      </c>
+      <c r="E29">
+        <v>7465</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>351</v>
+      </c>
+      <c r="E30">
+        <v>8438</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>450</v>
+      </c>
+      <c r="E31">
+        <v>16585.88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>16585.88</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>351</v>
+      </c>
+      <c r="E32">
+        <v>5931.9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33">
+        <v>351</v>
+      </c>
+      <c r="E33">
+        <v>7824</v>
+      </c>
+      <c r="F33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>351</v>
+      </c>
+      <c r="E34">
+        <v>9046</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35">
+        <v>351</v>
+      </c>
+      <c r="E35">
+        <v>3444.4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36">
+        <v>351</v>
+      </c>
+      <c r="E36">
+        <v>3472</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>351</v>
+      </c>
+      <c r="E37">
+        <v>3444.4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38">
+        <v>351</v>
+      </c>
+      <c r="E38">
+        <v>3436</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39">
+        <v>351</v>
+      </c>
+      <c r="E39">
+        <v>1505</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40">
+        <v>351</v>
+      </c>
+      <c r="E40">
+        <v>805</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41">
+        <v>351</v>
+      </c>
+      <c r="E41">
+        <v>6916</v>
+      </c>
+      <c r="F41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>44865</v>
       </c>
     </row>
   </sheetData>
